--- a/RNN_python/output_data_test/anom_data13.xlsx
+++ b/RNN_python/output_data_test/anom_data13.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43151</v>
+        <v>43111</v>
       </c>
       <c r="D2" t="n">
-        <v>6.790415593540871</v>
+        <v>-7.449697433340774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43151.04166666666</v>
+        <v>43111.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>6.55690028343534</v>
+        <v>59.48816209694814</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43151.08333333334</v>
+        <v>43111.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>13.00043067360247</v>
+        <v>-5.093816274217986</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43151.125</v>
+        <v>43111.125</v>
       </c>
       <c r="D5" t="n">
-        <v>18.56941369996545</v>
+        <v>-6.945861263241412</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43151.16666666666</v>
+        <v>43111.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>18.41815874125925</v>
+        <v>18.74997759555646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43151.20833333334</v>
+        <v>43111.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>17.21449718313841</v>
+        <v>45.60702634016948</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43151.25</v>
+        <v>43111.25</v>
       </c>
       <c r="D8" t="n">
-        <v>65.46633027774941</v>
+        <v>98.04745067037129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43151.29166666666</v>
+        <v>43111.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>313.5582092258908</v>
+        <v>183.5070531780135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43151.33333333334</v>
+        <v>43111.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>489.2175513729574</v>
+        <v>269.8228779553478</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43151.375</v>
+        <v>43111.375</v>
       </c>
       <c r="D11" t="n">
-        <v>439.8101700636831</v>
+        <v>326.4589374861666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43151.41666666666</v>
+        <v>43111.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>360.7286112192662</v>
+        <v>350.7607489920194</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43151.45833333334</v>
+        <v>43111.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>302.3441425671364</v>
+        <v>335.4502797493572</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43151.5</v>
+        <v>43111.5</v>
       </c>
       <c r="D14" t="n">
-        <v>261.9872196297724</v>
+        <v>300.6280703219454</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43151.54166666666</v>
+        <v>43111.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>227.5873709729012</v>
+        <v>252.8804886360006</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43151.58333333334</v>
+        <v>43111.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>195.2657403365449</v>
+        <v>201.873577155169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43151.625</v>
+        <v>43111.625</v>
       </c>
       <c r="D17" t="n">
-        <v>163.3727135632277</v>
+        <v>156.0179209420351</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43151.66666666666</v>
+        <v>43111.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>131.8904994976996</v>
+        <v>115.3881417151979</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43151.70833333334</v>
+        <v>43111.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>102.2324537624718</v>
+        <v>78.37154138072415</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43151.75</v>
+        <v>43111.75</v>
       </c>
       <c r="D20" t="n">
-        <v>76.18102992774362</v>
+        <v>48.90665808580574</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43151.79166666666</v>
+        <v>43111.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>54.86260612891853</v>
+        <v>29.23599617016659</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43151.83333333334</v>
+        <v>43111.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>38.72940503112497</v>
+        <v>17.92218117614635</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43151.875</v>
+        <v>43111.875</v>
       </c>
       <c r="D23" t="n">
-        <v>27.88969985432226</v>
+        <v>11.97399808239334</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43151.91666666666</v>
+        <v>43111.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>22.40558847466353</v>
+        <v>7.157650171850591</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43151.95833333334</v>
+        <v>43111.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>22.10416128945074</v>
+        <v>-2.075503795835971</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43151</v>
+        <v>43111</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43151.04166666666</v>
+        <v>43111.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43151.08333333334</v>
+        <v>43111.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43151.125</v>
+        <v>43111.125</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43151.16666666666</v>
+        <v>43111.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43151.20833333334</v>
+        <v>43111.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43151.25</v>
+        <v>43111.25</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43151.29166666666</v>
+        <v>43111.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43151.33333333334</v>
+        <v>43111.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>500</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43151.375</v>
+        <v>43111.375</v>
       </c>
       <c r="D11" t="n">
-        <v>487</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43151.41666666666</v>
+        <v>43111.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>356</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43151.45833333334</v>
+        <v>43111.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>251</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43151.5</v>
+        <v>43111.5</v>
       </c>
       <c r="D14" t="n">
-        <v>273</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43151.54166666666</v>
+        <v>43111.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>214</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43151.58333333334</v>
+        <v>43111.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>177</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43151.625</v>
+        <v>43111.625</v>
       </c>
       <c r="D17" t="n">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43151.66666666666</v>
+        <v>43111.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43151.70833333334</v>
+        <v>43111.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43151.75</v>
+        <v>43111.75</v>
       </c>
       <c r="D20" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43151.79166666666</v>
+        <v>43111.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43151.83333333334</v>
+        <v>43111.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43151.875</v>
+        <v>43111.875</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43151.91666666666</v>
+        <v>43111.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43151.95833333334</v>
+        <v>43111.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data13.xlsx
+++ b/RNN_python/output_data_test/anom_data13.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43111</v>
+        <v>43193</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.449697433340774</v>
+        <v>15.81804920033706</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43111.04166666666</v>
+        <v>43193.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>59.48816209694814</v>
+        <v>15.61983352687481</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43111.08333333334</v>
+        <v>43193.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.093816274217986</v>
+        <v>18.87205020017792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43111.125</v>
+        <v>43193.125</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.945861263241412</v>
+        <v>23.42002427756795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43111.16666666666</v>
+        <v>43193.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>18.74997759555646</v>
+        <v>28.49501373753412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43111.20833333334</v>
+        <v>43193.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>45.60702634016948</v>
+        <v>34.75033934900614</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43111.25</v>
+        <v>43193.25</v>
       </c>
       <c r="D8" t="n">
-        <v>98.04745067037129</v>
+        <v>67.41333501102831</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43111.29166666666</v>
+        <v>43193.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>183.5070531780135</v>
+        <v>211.7572170165846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43111.33333333334</v>
+        <v>43193.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>269.8228779553478</v>
+        <v>426.4225753426987</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43111.375</v>
+        <v>43193.375</v>
       </c>
       <c r="D11" t="n">
-        <v>326.4589374861666</v>
+        <v>392.5123022710277</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43111.41666666666</v>
+        <v>43193.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>350.7607489920194</v>
+        <v>350.0143538976576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43111.45833333334</v>
+        <v>43193.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>335.4502797493572</v>
+        <v>288.8656027694851</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43111.5</v>
+        <v>43193.5</v>
       </c>
       <c r="D14" t="n">
-        <v>300.6280703219454</v>
+        <v>262.7825816268372</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43111.54166666666</v>
+        <v>43193.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>252.8804886360006</v>
+        <v>227.4668660159837</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43111.58333333334</v>
+        <v>43193.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>201.873577155169</v>
+        <v>198.6052797912627</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43111.625</v>
+        <v>43193.625</v>
       </c>
       <c r="D17" t="n">
-        <v>156.0179209420351</v>
+        <v>167.8568092260524</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43111.66666666666</v>
+        <v>43193.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>115.3881417151979</v>
+        <v>138.1076206137101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43111.70833333334</v>
+        <v>43193.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>78.37154138072415</v>
+        <v>110.4775950071921</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43111.75</v>
+        <v>43193.75</v>
       </c>
       <c r="D20" t="n">
-        <v>48.90665808580574</v>
+        <v>86.00123224562135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43111.79166666666</v>
+        <v>43193.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>29.23599617016659</v>
+        <v>65.45443810496097</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43111.83333333334</v>
+        <v>43193.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>17.92218117614635</v>
+        <v>49.13786014565592</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43111.875</v>
+        <v>43193.875</v>
       </c>
       <c r="D23" t="n">
-        <v>11.97399808239334</v>
+        <v>36.8441330328464</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43111.91666666666</v>
+        <v>43193.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>7.157650171850591</v>
+        <v>28.01706645059446</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43111.95833333334</v>
+        <v>43193.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.075503795835971</v>
+        <v>19.65868243060669</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43111</v>
+        <v>43193</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43111.04166666666</v>
+        <v>43193.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43111.08333333334</v>
+        <v>43193.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43111.125</v>
+        <v>43193.125</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43111.16666666666</v>
+        <v>43193.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43111.20833333334</v>
+        <v>43193.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43111.25</v>
+        <v>43193.25</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43111.29166666666</v>
+        <v>43193.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43111.33333333334</v>
+        <v>43193.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>462</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43111.375</v>
+        <v>43193.375</v>
       </c>
       <c r="D11" t="n">
-        <v>453</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43111.41666666666</v>
+        <v>43193.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>467</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43111.45833333334</v>
+        <v>43193.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>290</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43111.5</v>
+        <v>43193.5</v>
       </c>
       <c r="D14" t="n">
-        <v>335</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43111.54166666666</v>
+        <v>43193.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>274</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43111.58333333334</v>
+        <v>43193.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>219</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43111.625</v>
+        <v>43193.625</v>
       </c>
       <c r="D17" t="n">
-        <v>154</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43111.66666666666</v>
+        <v>43193.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43111.70833333334</v>
+        <v>43193.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43111.75</v>
+        <v>43193.75</v>
       </c>
       <c r="D20" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43111.79166666666</v>
+        <v>43193.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43111.83333333334</v>
+        <v>43193.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43111.875</v>
+        <v>43193.875</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43111.91666666666</v>
+        <v>43193.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43111.95833333334</v>
+        <v>43193.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
